--- a/data/metadata/Informe-915-150013-TC-TM.xlsx
+++ b/data/metadata/Informe-915-150013-TC-TM.xlsx
@@ -43,7 +43,7 @@
     <t>null</t>
   </si>
   <si>
-    <t>iaest-measure:municipio-nombre</t>
+    <t>sdmx-dimension:refArea</t>
   </si>
   <si>
     <t>iaest-measure:siglas</t>
@@ -55,9 +55,6 @@
     <t>iaest-measure:votos</t>
   </si>
   <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
     <t>dim</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>skos:Concept</t>
+  </si>
+  <si>
+    <t>URI-Municipio</t>
   </si>
   <si>
     <t>xsd:int</t>
@@ -179,7 +179,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
@@ -187,25 +187,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>9</v>
@@ -213,13 +213,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>

--- a/data/metadata/Informe-915-150013-TC-TM.xlsx
+++ b/data/metadata/Informe-915-150013-TC-TM.xlsx
@@ -11,66 +11,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
-  <si>
-    <t>ano</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>municipio-nombre</t>
-  </si>
-  <si>
-    <t>siglas</t>
-  </si>
-  <si>
-    <t>orden</t>
-  </si>
-  <si>
-    <t>votos</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
-  </si>
-  <si>
-    <t>municipio-codigo</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+  <si>
+    <t>Orden</t>
+  </si>
+  <si>
+    <t>Comarca nombre</t>
+  </si>
+  <si>
+    <t>Comarca código</t>
+  </si>
+  <si>
+    <t>Siglas</t>
+  </si>
+  <si>
+    <t>Municipio código</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Votos</t>
+  </si>
+  <si>
+    <t>Municipio nombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:orden</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>iaest-measure:siglas</t>
   </si>
   <si>
     <t>sdmx-dimension:refPeriod</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-measure:siglas</t>
-  </si>
-  <si>
-    <t>iaest-measure:orden</t>
-  </si>
-  <si>
     <t>iaest-measure:votos</t>
   </si>
   <si>
+    <t>medida</t>
+  </si>
+  <si>
     <t>dim</t>
   </si>
   <si>
-    <t>medida</t>
-  </si>
-  <si>
-    <t>skos:Concept</t>
+    <t>xsd:int</t>
+  </si>
+  <si>
+    <t>URI-comarca</t>
+  </si>
+  <si>
+    <t>xsd:string</t>
+  </si>
+  <si>
+    <t>xsd:date</t>
   </si>
   <si>
     <t>URI-Municipio</t>
-  </si>
-  <si>
-    <t>xsd:int</t>
-  </si>
-  <si>
-    <t>URI-comarca</t>
   </si>
   <si>
     <t>mapping-ano.xlsx</t>
@@ -173,13 +176,13 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
@@ -190,16 +193,16 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
@@ -208,7 +211,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -216,30 +219,30 @@
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
